--- a/testdata/Change_Management_TestData.xlsx
+++ b/testdata/Change_Management_TestData.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="588">
   <si>
     <t>Serial No.</t>
   </si>
@@ -1796,6 +1796,21 @@
   </si>
   <si>
     <t>CHG0503079</t>
+  </si>
+  <si>
+    <t>CHG0503208</t>
+  </si>
+  <si>
+    <t>CHG0503221</t>
+  </si>
+  <si>
+    <t>CHG0503257</t>
+  </si>
+  <si>
+    <t>CHG0503369</t>
+  </si>
+  <si>
+    <t>CHG0503370</t>
   </si>
 </sst>
 </file>
@@ -1803,7 +1818,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1151">
+  <fonts count="1156">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6612,6 +6627,26 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -6711,7 +6746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1157">
+  <cellXfs count="1162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7880,6 +7915,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1147" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -8254,7 +8294,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>

--- a/testdata/Change_Management_TestData.xlsx
+++ b/testdata/Change_Management_TestData.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="590">
   <si>
     <t>Serial No.</t>
   </si>
@@ -1811,6 +1811,12 @@
   </si>
   <si>
     <t>CHG0503370</t>
+  </si>
+  <si>
+    <t>CHG0503407</t>
+  </si>
+  <si>
+    <t>CHG0503408</t>
   </si>
 </sst>
 </file>
@@ -1818,7 +1824,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1156">
+  <fonts count="1161">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6659,6 +6665,27 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
     </font>
   </fonts>
   <fills count="7">
@@ -6746,7 +6773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1162">
+  <cellXfs count="1167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7923,6 +7950,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1160" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8294,12 +8326,12 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s" s="1153">
+      <c r="E2" t="s" s="1166">
         <v>26</v>
       </c>
       <c r="F2" s="5" t="s">
